--- a/01_Input/00_CO Validation/Colombia - Energy Projects.xlsx
+++ b/01_Input/00_CO Validation/Colombia - Energy Projects.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27002"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27016"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://undp.sharepoint.com/sites/UNDPSustainableEnergyHub/Shared Documents/General/0. CURRENT FOLDER - Sustainable Energy Hub/05. Accounting for Progress to 500M/7. CO Validation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="98" documentId="8_{A4E74F79-E02C-435D-8D4A-18BF02B394B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{03C600EC-56AC-459F-B1B5-91472586EDD5}"/>
+  <xr:revisionPtr revIDLastSave="106" documentId="8_{A4E74F79-E02C-435D-8D4A-18BF02B394B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{235B3F90-3AFB-4F99-B7EA-4B6AAA408EF1}"/>
   <bookViews>
     <workbookView xWindow="-3915" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,6 +20,9 @@
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -135,7 +138,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="84">
   <si>
     <t>Project ID</t>
   </si>
@@ -282,7 +285,7 @@
     <t>https://open.undp.org/projects/00098331</t>
   </si>
   <si>
-    <t>Energy (MW added)</t>
+    <t>Electricity Access</t>
   </si>
   <si>
     <t>Collective Communities - Victims of the army conflict.</t>
@@ -348,7 +351,13 @@
     <t>Victims Unit (Government of Colombia) and norwegian government</t>
   </si>
   <si>
+    <t>Policy or Regulatory Framework</t>
+  </si>
+  <si>
     <t>3.627USD</t>
+  </si>
+  <si>
+    <t>Energy (MW added)</t>
   </si>
   <si>
     <t xml:space="preserve">0 stores
@@ -446,9 +455,6 @@
     <t>Access to Energy</t>
   </si>
   <si>
-    <t>Electricity Access</t>
-  </si>
-  <si>
     <t>Access to electricity (direct access to electricity, lighting,  heating, cooling etc.)</t>
   </si>
   <si>
@@ -528,9 +534,6 @@
   </si>
   <si>
     <t>Policy and Regulator Frameworks</t>
-  </si>
-  <si>
-    <t>Policy or Regulatory Framework</t>
   </si>
   <si>
     <t>Policies and regulatory framework can have far-reaching impacts on the energy access situation in countries</t>
@@ -783,7 +786,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -941,12 +944,34 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -959,21 +984,6 @@
     <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -986,13 +996,36 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1361,11 +1394,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{113846EA-FDC7-4DC9-81A3-7BACF1037900}">
-  <dimension ref="A1:T14"/>
+  <dimension ref="A1:T15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I6" sqref="I6"/>
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1377,7 +1410,7 @@
     <col min="6" max="6" width="35" style="4" customWidth="1"/>
     <col min="7" max="7" width="19.85546875" style="6" customWidth="1"/>
     <col min="8" max="8" width="21.5703125" style="4" customWidth="1"/>
-    <col min="9" max="9" width="65.140625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="79.5703125" style="4" customWidth="1"/>
     <col min="10" max="10" width="35.28515625" style="5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="53.28515625" style="5" customWidth="1"/>
     <col min="12" max="16384" width="8.85546875" style="5"/>
@@ -1600,11 +1633,11 @@
       <c r="B6" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="68" t="s">
+      <c r="C6" s="53" t="s">
         <v>34</v>
       </c>
       <c r="D6" s="48">
-        <v>3.6269999999999998</v>
+        <v>3627000</v>
       </c>
       <c r="E6" s="49" t="s">
         <v>35</v>
@@ -1618,7 +1651,7 @@
       <c r="H6" s="49">
         <v>16571</v>
       </c>
-      <c r="I6" s="69" t="s">
+      <c r="I6" s="54" t="s">
         <v>37</v>
       </c>
       <c r="J6" s="51" t="s">
@@ -1636,50 +1669,74 @@
       <c r="T6" s="38"/>
     </row>
     <row r="7" spans="1:20">
-      <c r="A7" s="10"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="15"/>
+      <c r="A7" s="71"/>
+      <c r="B7" s="72"/>
+      <c r="C7" s="73"/>
+      <c r="D7" s="74"/>
+      <c r="E7" s="75" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="75"/>
+      <c r="G7" s="76"/>
+      <c r="H7" s="75"/>
+      <c r="I7" s="77"/>
+      <c r="J7" s="78"/>
+      <c r="K7" s="79"/>
+      <c r="L7" s="79"/>
+      <c r="M7" s="79"/>
+      <c r="N7" s="79"/>
+      <c r="O7" s="79"/>
+      <c r="P7" s="79"/>
+      <c r="Q7" s="79"/>
+      <c r="R7" s="79"/>
+      <c r="S7" s="79"/>
+      <c r="T7" s="80"/>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" s="10"/>
       <c r="B8" s="11"/>
       <c r="C8" s="12"/>
       <c r="D8" s="13"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
       <c r="I8" s="15"/>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" s="10"/>
+      <c r="B9" s="11"/>
       <c r="C9" s="12"/>
       <c r="D9" s="13"/>
       <c r="E9" s="16"/>
       <c r="F9" s="17"/>
       <c r="G9" s="16"/>
       <c r="H9" s="16"/>
+      <c r="I9" s="15"/>
     </row>
     <row r="10" spans="1:20">
-      <c r="A10" s="16"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="28"/>
+      <c r="A10" s="10"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="13"/>
       <c r="E10" s="16"/>
       <c r="F10" s="17"/>
       <c r="G10" s="16"/>
       <c r="H10" s="16"/>
-      <c r="I10" s="15"/>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="B14" s="9"/>
-      <c r="H14" s="70"/>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" s="16"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="15"/>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="B15" s="9"/>
+      <c r="H15" s="55"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1710,7 +1767,7 @@
   <dimension ref="A1:T14"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
@@ -1946,12 +2003,12 @@
       <c r="B6" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="68"/>
+      <c r="C6" s="53"/>
       <c r="D6" s="48" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E6" s="49" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F6" s="49">
         <v>16571</v>
@@ -1962,7 +2019,7 @@
       <c r="H6" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="I6" s="69" t="s">
+      <c r="I6" s="54" t="s">
         <v>37</v>
       </c>
       <c r="J6" s="51" t="s">
@@ -2023,7 +2080,7 @@
     </row>
     <row r="14" spans="1:20">
       <c r="B14" s="9"/>
-      <c r="H14" s="70"/>
+      <c r="H14" s="55"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2108,16 +2165,16 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="141.75" customHeight="1">
-      <c r="A2" s="54">
+      <c r="A2" s="59">
         <v>132166</v>
       </c>
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="60" t="s">
+      <c r="C2" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="59">
+      <c r="D2" s="56">
         <v>14780</v>
       </c>
       <c r="E2" s="19" t="s">
@@ -2127,12 +2184,12 @@
         <v>23</v>
       </c>
       <c r="G2" s="20" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H2" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="I2" s="62" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2" s="60" t="s">
         <v>24</v>
       </c>
       <c r="J2" s="30" t="s">
@@ -2143,10 +2200,10 @@
       </c>
     </row>
     <row r="3" spans="1:11" s="7" customFormat="1" ht="30.75">
-      <c r="A3" s="54"/>
-      <c r="B3" s="54"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="59"/>
+      <c r="A3" s="59"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="56"/>
       <c r="E3" s="19" t="s">
         <v>22</v>
       </c>
@@ -2154,24 +2211,24 @@
         <v>27</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H3" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="I3" s="63"/>
+        <v>45</v>
+      </c>
+      <c r="I3" s="61"/>
     </row>
     <row r="4" spans="1:11" ht="165" customHeight="1">
-      <c r="A4" s="54" t="s">
+      <c r="A4" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="54" t="s">
+      <c r="B4" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="55" t="s">
+      <c r="C4" s="63" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="57">
+      <c r="D4" s="65">
         <v>9217</v>
       </c>
       <c r="E4" s="19" t="s">
@@ -2181,12 +2238,12 @@
         <v>23</v>
       </c>
       <c r="G4" s="20" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H4" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="I4" s="53" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" s="62" t="s">
         <v>24</v>
       </c>
       <c r="J4" s="31" t="s">
@@ -2197,10 +2254,10 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="30.75">
-      <c r="A5" s="54"/>
-      <c r="B5" s="54"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="58"/>
+      <c r="A5" s="59"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="66"/>
       <c r="E5" s="19" t="s">
         <v>22</v>
       </c>
@@ -2208,12 +2265,12 @@
         <v>27</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H5" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="I5" s="53"/>
+        <v>47</v>
+      </c>
+      <c r="I5" s="62"/>
     </row>
     <row r="6" spans="1:11" ht="409.6">
       <c r="A6" s="21">
@@ -2224,13 +2281,13 @@
       </c>
       <c r="C6" s="23"/>
       <c r="D6" s="24" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E6" s="25" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F6" s="25" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G6" s="19">
         <v>0</v>
@@ -2239,7 +2296,7 @@
         <v>36</v>
       </c>
       <c r="I6" s="26" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J6" s="31" t="s">
         <v>38</v>
@@ -2292,16 +2349,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="I2:I3"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{5A53599B-2B12-4126-B10B-63EF8BFC44B4}"/>
@@ -2342,146 +2399,146 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="64" t="s">
-        <v>51</v>
+      <c r="A2" s="67" t="s">
+        <v>53</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="C2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="64"/>
+      <c r="A3" s="67"/>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="64"/>
+      <c r="A4" s="67"/>
       <c r="B4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="65" t="s">
-        <v>57</v>
+      <c r="A5" s="68" t="s">
+        <v>58</v>
       </c>
       <c r="B5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="65"/>
+      <c r="A6" s="68"/>
       <c r="B6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="65"/>
+      <c r="A7" s="68"/>
       <c r="B7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="65"/>
+      <c r="A8" s="68"/>
       <c r="B8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="65"/>
+      <c r="A9" s="68"/>
       <c r="B9" t="s">
         <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="66" t="s">
-        <v>67</v>
+      <c r="A10" s="69" t="s">
+        <v>68</v>
       </c>
       <c r="B10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="66"/>
+      <c r="A11" s="69"/>
       <c r="B11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C11" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="67" t="s">
-        <v>72</v>
+      <c r="A12" s="70" t="s">
+        <v>73</v>
       </c>
       <c r="B12" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C12" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="67"/>
+      <c r="A13" s="70"/>
       <c r="B13" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C13" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="67"/>
+      <c r="A14" s="70"/>
       <c r="B14" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C14" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B15" t="s">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="C15" t="s">
         <v>81</v>
@@ -2510,12 +2567,41 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="720239d0-7d3a-4257-bb40-a2a3b1409bb2">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59" xsi:nil="true"/>
+    <SharedWithUsers xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59">
+      <UserInfo>
+        <DisplayName>Alejandro Pacheco</DisplayName>
+        <AccountId>1250</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Lyes FERROUKHI</DisplayName>
+        <AccountId>97</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Stefano Pistolese</DisplayName>
+        <AccountId>772</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Jimena Puyana</DisplayName>
+        <AccountId>1259</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Carlos Salgado</DisplayName>
+        <AccountId>1344</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2768,45 +2854,16 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="720239d0-7d3a-4257-bb40-a2a3b1409bb2">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59" xsi:nil="true"/>
-    <SharedWithUsers xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59">
-      <UserInfo>
-        <DisplayName>Alejandro Pacheco</DisplayName>
-        <AccountId>1250</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Lyes FERROUKHI</DisplayName>
-        <AccountId>97</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Stefano Pistolese</DisplayName>
-        <AccountId>772</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Jimena Puyana</DisplayName>
-        <AccountId>1259</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Carlos Salgado</DisplayName>
-        <AccountId>1344</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D06A8A7-AAD0-46D5-9E3E-4D298B186157}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84AEDBCE-AE29-4AA3-A5BD-B932231712F2}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2814,5 +2871,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84AEDBCE-AE29-4AA3-A5BD-B932231712F2}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D06A8A7-AAD0-46D5-9E3E-4D298B186157}"/>
 </file>
--- a/01_Input/00_CO Validation/Colombia - Energy Projects.xlsx
+++ b/01_Input/00_CO Validation/Colombia - Energy Projects.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27307"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27324"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://undp.sharepoint.com/sites/UNDPSustainableEnergyHub/Shared Documents/General/0. CURRENT FOLDER - Sustainable Energy Hub/05. Accounting for Progress to 500M/7. CO Validation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="547" documentId="8_{A4E74F79-E02C-435D-8D4A-18BF02B394B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{842E36BE-5F44-40AC-B9B2-E1C724CDB4B8}"/>
+  <xr:revisionPtr revIDLastSave="556" documentId="8_{A4E74F79-E02C-435D-8D4A-18BF02B394B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2C9FD465-B0A6-46D2-A331-6E87BE31FA14}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="125">
   <si>
     <t>Project ID</t>
   </si>
@@ -50,7 +50,10 @@
     <t>Link</t>
   </si>
   <si>
-    <t>Budget (USD)</t>
+    <t>Budget</t>
+  </si>
+  <si>
+    <t>Budget (Notes)</t>
   </si>
   <si>
     <t>Beneficiary Category</t>
@@ -409,6 +412,9 @@
   </si>
   <si>
     <t>Renewable Energy</t>
+  </si>
+  <si>
+    <t>Budget (USD)</t>
   </si>
   <si>
     <t xml:space="preserve">Comments </t>
@@ -1946,6 +1952,30 @@
     <xf numFmtId="2" fontId="19" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1964,27 +1994,18 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1997,14 +2018,38 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2035,45 +2080,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2391,39 +2397,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{113846EA-FDC7-4DC9-81A3-7BACF1037900}">
-  <dimension ref="A1:U11"/>
+  <dimension ref="A1:V11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="15.7109375" style="57" customWidth="1"/>
-    <col min="2" max="3" width="41.7109375" style="36" customWidth="1"/>
-    <col min="4" max="4" width="34" style="57" customWidth="1"/>
-    <col min="5" max="5" width="28.5703125" style="36" customWidth="1"/>
-    <col min="6" max="6" width="35" style="42" customWidth="1"/>
-    <col min="7" max="7" width="8.5703125" style="36" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.85546875" style="42" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="129.42578125" style="42" customWidth="1"/>
-    <col min="10" max="10" width="35.28515625" style="36" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18" style="34" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13" style="34" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="34" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14" style="34" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.28515625" style="34" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.7109375" style="34" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.42578125" style="34" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.5703125" style="34" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.140625" style="34" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="21.140625" style="34" customWidth="1"/>
-    <col min="21" max="21" width="16.5703125" style="34" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="8.85546875" style="36"/>
+    <col min="2" max="4" width="41.7109375" style="36" customWidth="1"/>
+    <col min="5" max="5" width="34" style="57" customWidth="1"/>
+    <col min="6" max="6" width="28.5703125" style="36" customWidth="1"/>
+    <col min="7" max="7" width="35" style="42" customWidth="1"/>
+    <col min="8" max="8" width="8.5703125" style="36" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.85546875" style="42" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="129.42578125" style="42" customWidth="1"/>
+    <col min="11" max="11" width="35.28515625" style="36" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18" style="34" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13" style="34" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.7109375" style="34" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14" style="34" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.28515625" style="34" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.7109375" style="34" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.42578125" style="34" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.5703125" style="34" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.140625" style="34" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="21.140625" style="34" customWidth="1"/>
+    <col min="22" max="22" width="16.5703125" style="34" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="8.85546875" style="36"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="40.5" customHeight="1">
+    <row r="1" spans="1:22" ht="40.5" customHeight="1">
       <c r="A1" s="54" t="s">
         <v>0</v>
       </c>
@@ -2433,10 +2439,10 @@
       <c r="C1" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="54" t="s">
+      <c r="D1" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="E1" s="54" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="35" t="s">
@@ -2445,25 +2451,25 @@
       <c r="G1" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="77" t="s">
+      <c r="H1" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="35" t="s">
+      <c r="I1" s="77" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="64" t="s">
+      <c r="K1" s="35" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="65" t="s">
+      <c r="M1" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="64" t="s">
+      <c r="N1" s="65" t="s">
         <v>13</v>
       </c>
       <c r="O1" s="64" t="s">
@@ -2475,274 +2481,283 @@
       <c r="Q1" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="66" t="s">
+      <c r="R1" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="64" t="s">
+      <c r="S1" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="66" t="s">
+      <c r="T1" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="64" t="s">
+      <c r="U1" s="66" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:21" ht="201" customHeight="1">
+      <c r="V1" s="64" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" ht="201" customHeight="1">
       <c r="A2" s="55" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="87" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="D2" s="87"/>
+      <c r="E2" s="87" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="10">
+      <c r="G2" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="10">
         <v>0</v>
       </c>
-      <c r="H2" s="11">
+      <c r="I2" s="11">
         <v>69</v>
       </c>
-      <c r="I2" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="J2" s="84" t="s">
+      <c r="J2" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="K2" s="63">
+      <c r="K2" s="84" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" s="63">
         <v>0.72</v>
       </c>
-      <c r="L2" s="62" t="s">
-        <v>29</v>
-      </c>
-      <c r="M2" s="4" t="s">
+      <c r="M2" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="N2" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="O2" s="9" t="s">
         <v>32</v>
       </c>
       <c r="P2" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="Q2" s="62" t="s">
+      <c r="Q2" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="R2" s="4" t="s">
-        <v>32</v>
+      <c r="R2" s="62" t="s">
+        <v>35</v>
       </c>
       <c r="S2" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="T2" s="67" t="s">
+        <v>33</v>
+      </c>
+      <c r="T2" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="U2" s="4" t="s">
+      <c r="U2" s="67" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="3" spans="1:21" ht="208.5" customHeight="1">
+      <c r="V2" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" ht="208.5" customHeight="1">
       <c r="A3" s="55" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C3" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="D3" s="86" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" s="11" t="s">
+      <c r="D3" s="87"/>
+      <c r="E3" s="86" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="10">
+      <c r="G3" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="10">
         <v>0</v>
       </c>
-      <c r="H3" s="39">
+      <c r="I3" s="39">
         <v>56</v>
       </c>
-      <c r="I3" s="39" t="s">
-        <v>42</v>
-      </c>
-      <c r="J3" s="84" t="s">
+      <c r="J3" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="K3" s="63">
+      <c r="K3" s="84" t="s">
+        <v>44</v>
+      </c>
+      <c r="L3" s="63">
         <v>0.2</v>
       </c>
-      <c r="L3" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="M3" s="3" t="s">
+      <c r="M3" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="N3" s="9" t="s">
+      <c r="N3" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="O3" s="9" t="s">
         <v>32</v>
       </c>
       <c r="P3" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="Q3" s="62" t="s">
+      <c r="Q3" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="R3" s="68" t="s">
-        <v>32</v>
-      </c>
-      <c r="S3" s="30" t="s">
+      <c r="R3" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="T3" s="69" t="s">
+      <c r="S3" s="68" t="s">
+        <v>33</v>
+      </c>
+      <c r="T3" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="U3" s="4" t="s">
+      <c r="U3" s="69" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="4" spans="1:21" ht="381.75">
+      <c r="V3" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" ht="381.75">
       <c r="A4" s="55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C4" s="40" t="s">
-        <v>46</v>
-      </c>
-      <c r="D4" s="88" t="s">
         <v>47</v>
       </c>
-      <c r="E4" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" s="11" t="s">
+      <c r="D4" s="40"/>
+      <c r="E4" s="88" t="s">
         <v>48</v>
       </c>
-      <c r="G4" s="10">
+      <c r="F4" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="H4" s="10">
         <v>0</v>
       </c>
-      <c r="H4" s="10">
+      <c r="I4" s="10">
         <v>16571</v>
       </c>
-      <c r="I4" s="41" t="s">
-        <v>49</v>
-      </c>
-      <c r="J4" s="85" t="s">
+      <c r="J4" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="K4" s="63">
+      <c r="K4" s="85" t="s">
+        <v>51</v>
+      </c>
+      <c r="L4" s="63">
         <v>0.2</v>
       </c>
-      <c r="L4" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="M4" s="3" t="s">
+      <c r="M4" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="N4" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="O4" s="4" t="s">
+      <c r="N4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O4" s="9" t="s">
         <v>52</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q4" s="62" t="s">
         <v>53</v>
       </c>
-      <c r="R4" s="4" t="s">
+      <c r="Q4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="R4" s="62" t="s">
         <v>54</v>
       </c>
-      <c r="S4" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="T4" s="4" t="s">
+      <c r="S4" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="T4" s="29" t="s">
         <v>36</v>
       </c>
       <c r="U4" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="5" spans="1:21" ht="15">
+      <c r="V4" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22">
       <c r="A5" s="56"/>
       <c r="B5" s="14"/>
       <c r="C5" s="15"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="14"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="16"/>
       <c r="H5" s="14"/>
-    </row>
-    <row r="6" spans="1:21" ht="15">
+      <c r="I5" s="14"/>
+    </row>
+    <row r="6" spans="1:22">
       <c r="A6" s="56"/>
       <c r="C6" s="15"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="14"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="16"/>
       <c r="H6" s="14"/>
-    </row>
-    <row r="7" spans="1:21">
+      <c r="I6" s="14"/>
+    </row>
+    <row r="7" spans="1:22">
       <c r="A7" s="56"/>
       <c r="B7" s="14"/>
       <c r="C7" s="43"/>
-      <c r="D7" s="56"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="14"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="16"/>
       <c r="H7" s="14"/>
-    </row>
-    <row r="11" spans="1:21">
+      <c r="I7" s="14"/>
+    </row>
+    <row r="11" spans="1:22">
       <c r="B11" s="44"/>
-      <c r="H11" s="45"/>
+      <c r="I11" s="45"/>
     </row>
   </sheetData>
   <dataValidations count="9">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q4" xr:uid="{B1DE9920-651D-409A-9862-7A4F4FDDD16C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2:R4" xr:uid="{B1DE9920-651D-409A-9862-7A4F4FDDD16C}">
       <formula1>"NDC Support, National Strategy, Legal Framework,Incentives and Support, Government Capacity-Building, Carbon Pricing and Monitoring, Financing Model, Business Model"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P4" xr:uid="{68859A0A-70A9-4712-AAA3-5B58409F63C1}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q4" xr:uid="{68859A0A-70A9-4712-AAA3-5B58409F63C1}">
       <formula1>"AMP, PUDC, Solar4Health, Action Opportunities, Italy UNDP Energy Partnership"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N4" xr:uid="{226E2294-CF69-4E00-B4A6-35B3AADBB437}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O4" xr:uid="{226E2294-CF69-4E00-B4A6-35B3AADBB437}">
       <formula1>"Accelerating just energy transition, Close the gap on energy access, Scale up energy finance"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O4" xr:uid="{32FB862E-93A5-4080-944B-E63960DD868F}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P4" xr:uid="{32FB862E-93A5-4080-944B-E63960DD868F}">
       <formula1>"Electricity Access, Energy Efficiency, Clean Cooking, Renewable Energy, Overall"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T2:T4" xr:uid="{DBEF4149-F57D-4427-ACAC-75B0A9F16BDF}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U2:U4" xr:uid="{DBEF4149-F57D-4427-ACAC-75B0A9F16BDF}">
       <formula1>"National, Regional, City, Community"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M4" xr:uid="{2A830CFC-452C-4A9E-9B6E-858A10840F07}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N4" xr:uid="{2A830CFC-452C-4A9E-9B6E-858A10840F07}">
       <formula1>"Finance, Gender, Efficiency, Just, Health"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L4" xr:uid="{585F7FA1-B70F-41DF-90FA-A2798989B191}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M4" xr:uid="{585F7FA1-B70F-41DF-90FA-A2798989B191}">
       <formula1>"Non-VF, VF"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2:S4" xr:uid="{96B7F67D-2CFA-4D14-9C10-86A154AACBD4}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T2:T4" xr:uid="{96B7F67D-2CFA-4D14-9C10-86A154AACBD4}">
       <formula1>"Solar, Wind, Bioenergy, Hydro, Geothermal, Waste, Some Sources, Other, Unknown"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2:R4" xr:uid="{D70CAB8C-9E76-41EB-B6F2-3B111EA07165}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2:S4" xr:uid="{D70CAB8C-9E76-41EB-B6F2-3B111EA07165}">
       <formula1>"Electricity Access, Energy Efficiency, Renewable Energy, Infrastructure,  Transport, Digital &amp; Data, Clean Cooking, Decarbonization, Hydrogen, Off-Grid, On-Grid, Research &amp; Innovation, Grant &amp; Investment"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2760,7 +2775,7 @@
           <x14:formula1>
             <xm:f>'Beneficiary Categories'!$A$2:$A$22</xm:f>
           </x14:formula1>
-          <xm:sqref>E2:E4</xm:sqref>
+          <xm:sqref>F2:F4</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2811,75 +2826,75 @@
         <v>2</v>
       </c>
       <c r="D1" s="23" t="s">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="E1" s="23" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F1" s="24" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G1" s="22" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H1" s="70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I1" s="23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J1" s="23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K1" s="23" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="L1" s="78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M1" s="78" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="N1" s="78" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="O1" s="78" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="P1" s="78" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Q1" s="78" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="R1" s="78" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="S1" s="78" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="T1" s="78" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="141.75" customHeight="1">
-      <c r="A2" s="106" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="107" t="s">
+      <c r="A2" s="91" t="s">
         <v>22</v>
       </c>
+      <c r="B2" s="93" t="s">
+        <v>23</v>
+      </c>
       <c r="C2" s="95" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="100" t="s">
-        <v>58</v>
+        <v>24</v>
+      </c>
+      <c r="D2" s="106" t="s">
+        <v>60</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F2" s="29" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G2" s="4">
         <v>0</v>
@@ -2887,47 +2902,47 @@
       <c r="H2" s="71">
         <v>2</v>
       </c>
-      <c r="I2" s="102" t="s">
-        <v>60</v>
-      </c>
-      <c r="J2" s="91" t="s">
-        <v>61</v>
-      </c>
-      <c r="K2" s="93"/>
-      <c r="L2" s="98">
+      <c r="I2" s="107" t="s">
+        <v>62</v>
+      </c>
+      <c r="J2" s="99" t="s">
+        <v>63</v>
+      </c>
+      <c r="K2" s="101"/>
+      <c r="L2" s="103">
         <v>0.72</v>
       </c>
-      <c r="M2" s="97"/>
-      <c r="N2" s="97"/>
-      <c r="O2" s="97" t="s">
-        <v>30</v>
-      </c>
-      <c r="P2" s="97" t="s">
+      <c r="M2" s="90"/>
+      <c r="N2" s="90"/>
+      <c r="O2" s="90" t="s">
         <v>31</v>
       </c>
-      <c r="Q2" s="97" t="s">
+      <c r="P2" s="90" t="s">
         <v>32</v>
       </c>
-      <c r="R2" s="97" t="s">
+      <c r="Q2" s="90" t="s">
         <v>33</v>
       </c>
-      <c r="S2" s="97" t="s">
+      <c r="R2" s="90" t="s">
         <v>34</v>
       </c>
-      <c r="T2" s="97" t="s">
-        <v>32</v>
+      <c r="S2" s="90" t="s">
+        <v>35</v>
+      </c>
+      <c r="T2" s="90" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="28.9">
-      <c r="A3" s="101"/>
-      <c r="B3" s="108"/>
+      <c r="A3" s="92"/>
+      <c r="B3" s="94"/>
       <c r="C3" s="96"/>
-      <c r="D3" s="101"/>
+      <c r="D3" s="92"/>
       <c r="E3" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F3" s="29" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G3" s="3">
         <v>0</v>
@@ -2936,37 +2951,37 @@
         <f>37+32</f>
         <v>69</v>
       </c>
-      <c r="I3" s="103"/>
-      <c r="J3" s="104"/>
-      <c r="K3" s="105"/>
-      <c r="L3" s="97"/>
-      <c r="M3" s="97"/>
-      <c r="N3" s="97"/>
-      <c r="O3" s="97"/>
-      <c r="P3" s="97"/>
-      <c r="Q3" s="97"/>
-      <c r="R3" s="97"/>
-      <c r="S3" s="97"/>
-      <c r="T3" s="97"/>
+      <c r="I3" s="108"/>
+      <c r="J3" s="109"/>
+      <c r="K3" s="110"/>
+      <c r="L3" s="90"/>
+      <c r="M3" s="90"/>
+      <c r="N3" s="90"/>
+      <c r="O3" s="90"/>
+      <c r="P3" s="90"/>
+      <c r="Q3" s="90"/>
+      <c r="R3" s="90"/>
+      <c r="S3" s="90"/>
+      <c r="T3" s="90"/>
     </row>
     <row r="4" spans="1:20" ht="165" customHeight="1">
-      <c r="A4" s="106" t="s">
-        <v>62</v>
-      </c>
-      <c r="B4" s="107" t="s">
-        <v>39</v>
+      <c r="A4" s="91" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" s="93" t="s">
+        <v>40</v>
       </c>
       <c r="C4" s="95" t="s">
-        <v>63</v>
-      </c>
-      <c r="D4" s="130" t="s">
-        <v>64</v>
+        <v>65</v>
+      </c>
+      <c r="D4" s="104" t="s">
+        <v>66</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F4" s="29" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G4" s="4">
         <v>0</v>
@@ -2974,47 +2989,47 @@
       <c r="H4" s="72">
         <v>1</v>
       </c>
-      <c r="I4" s="89" t="s">
-        <v>65</v>
-      </c>
-      <c r="J4" s="91" t="s">
-        <v>66</v>
-      </c>
-      <c r="K4" s="93"/>
-      <c r="L4" s="98">
+      <c r="I4" s="97" t="s">
+        <v>67</v>
+      </c>
+      <c r="J4" s="99" t="s">
+        <v>68</v>
+      </c>
+      <c r="K4" s="101"/>
+      <c r="L4" s="103">
         <v>0.2</v>
       </c>
-      <c r="M4" s="97"/>
-      <c r="N4" s="97"/>
-      <c r="O4" s="97" t="s">
-        <v>30</v>
-      </c>
-      <c r="P4" s="97" t="s">
+      <c r="M4" s="90"/>
+      <c r="N4" s="90"/>
+      <c r="O4" s="90" t="s">
         <v>31</v>
       </c>
-      <c r="Q4" s="97" t="s">
+      <c r="P4" s="90" t="s">
         <v>32</v>
       </c>
-      <c r="R4" s="97" t="s">
+      <c r="Q4" s="90" t="s">
         <v>33</v>
       </c>
-      <c r="S4" s="97" t="s">
+      <c r="R4" s="90" t="s">
         <v>34</v>
       </c>
-      <c r="T4" s="97" t="s">
-        <v>32</v>
+      <c r="S4" s="90" t="s">
+        <v>35</v>
+      </c>
+      <c r="T4" s="90" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="28.9">
-      <c r="A5" s="101"/>
-      <c r="B5" s="108"/>
+      <c r="A5" s="92"/>
+      <c r="B5" s="94"/>
       <c r="C5" s="96"/>
-      <c r="D5" s="99"/>
+      <c r="D5" s="105"/>
       <c r="E5" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F5" s="29" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G5" s="3">
         <v>0</v>
@@ -3022,37 +3037,37 @@
       <c r="H5" s="72">
         <v>56</v>
       </c>
-      <c r="I5" s="90"/>
-      <c r="J5" s="92"/>
-      <c r="K5" s="94"/>
-      <c r="L5" s="97"/>
-      <c r="M5" s="97"/>
-      <c r="N5" s="97"/>
-      <c r="O5" s="97"/>
-      <c r="P5" s="97"/>
-      <c r="Q5" s="97"/>
-      <c r="R5" s="97"/>
-      <c r="S5" s="97"/>
-      <c r="T5" s="97"/>
+      <c r="I5" s="98"/>
+      <c r="J5" s="100"/>
+      <c r="K5" s="102"/>
+      <c r="L5" s="90"/>
+      <c r="M5" s="90"/>
+      <c r="N5" s="90"/>
+      <c r="O5" s="90"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="90"/>
+      <c r="R5" s="90"/>
+      <c r="S5" s="90"/>
+      <c r="T5" s="90"/>
     </row>
     <row r="6" spans="1:20" ht="409.6">
       <c r="A6" s="55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C6" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="D6" s="131" t="s">
-        <v>67</v>
+        <v>47</v>
+      </c>
+      <c r="D6" s="89" t="s">
+        <v>69</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F6" s="29" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G6" s="3">
         <v>0</v>
@@ -3061,10 +3076,10 @@
         <v>16571</v>
       </c>
       <c r="I6" s="25" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="J6" s="81" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K6" s="37"/>
       <c r="L6" s="79">
@@ -3073,22 +3088,22 @@
       <c r="M6" s="12"/>
       <c r="N6" s="12"/>
       <c r="O6" s="12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P6" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q6" s="12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R6" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="S6" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="T6" s="12" t="s">
         <v>33</v>
-      </c>
-      <c r="S6" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="T6" s="12" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -3164,23 +3179,6 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="P2:P3"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="T4:T5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C4:C5"/>
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="K4:K5"/>
@@ -3196,6 +3194,23 @@
     <mergeCell ref="K2:K3"/>
     <mergeCell ref="L2:L3"/>
     <mergeCell ref="M2:M3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="T4:T5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="Q2:Q3"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" display="https://www.undp.org/es/colombia/news/en-la-guajira-mujeres-rurales-lideran-tiendas-comunitarias-para-su-empoderamiento-econ%C3%B3mico_x000a__x000a_https://www.youtube.com/watch?v=6vtlQRzqaUw" xr:uid="{D1B7DF54-289B-4418-9980-364EFE41E4B2}"/>
@@ -3254,168 +3269,168 @@
         <v>2</v>
       </c>
       <c r="D1" s="50" t="s">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="E1" s="49" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F1" s="49" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G1" s="49" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H1" s="49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I1" s="49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J1" s="49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K1" s="49" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="141.75" customHeight="1">
-      <c r="A2" s="122" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="121" t="s">
+      <c r="A2" s="114" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="119" t="s">
+      <c r="B2" s="113" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="117" t="s">
-        <v>71</v>
+      <c r="C2" s="111" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="130" t="s">
+        <v>73</v>
       </c>
       <c r="E2" s="46" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F2" s="47" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G2" s="47" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H2" s="47" t="s">
-        <v>73</v>
-      </c>
-      <c r="I2" s="123" t="s">
-        <v>60</v>
-      </c>
-      <c r="J2" s="113" t="s">
+        <v>75</v>
+      </c>
+      <c r="I2" s="115" t="s">
+        <v>62</v>
+      </c>
+      <c r="J2" s="126" t="s">
+        <v>76</v>
+      </c>
+      <c r="K2" s="128"/>
+    </row>
+    <row r="3" spans="1:11" ht="28.9">
+      <c r="A3" s="114"/>
+      <c r="B3" s="113"/>
+      <c r="C3" s="112"/>
+      <c r="D3" s="131"/>
+      <c r="E3" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="46" t="s">
+        <v>77</v>
+      </c>
+      <c r="H3" s="47" t="s">
+        <v>78</v>
+      </c>
+      <c r="I3" s="116"/>
+      <c r="J3" s="127"/>
+      <c r="K3" s="129"/>
+    </row>
+    <row r="4" spans="1:11" ht="165" customHeight="1">
+      <c r="A4" s="114" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="113" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="118" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" s="120" t="s">
+        <v>79</v>
+      </c>
+      <c r="E4" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="47" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" s="47" t="s">
         <v>74</v>
       </c>
-      <c r="K2" s="115"/>
-    </row>
-    <row r="3" spans="1:11" ht="28.9">
-      <c r="A3" s="122"/>
-      <c r="B3" s="121"/>
-      <c r="C3" s="120"/>
-      <c r="D3" s="118"/>
-      <c r="E3" s="46" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" s="47" t="s">
+      <c r="H4" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="I4" s="117" t="s">
+        <v>67</v>
+      </c>
+      <c r="J4" s="124" t="s">
+        <v>81</v>
+      </c>
+      <c r="K4" s="122"/>
+    </row>
+    <row r="5" spans="1:11" ht="28.9">
+      <c r="A5" s="114"/>
+      <c r="B5" s="113"/>
+      <c r="C5" s="119"/>
+      <c r="D5" s="121"/>
+      <c r="E5" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="46" t="s">
-        <v>75</v>
-      </c>
-      <c r="H3" s="47" t="s">
-        <v>76</v>
-      </c>
-      <c r="I3" s="124"/>
-      <c r="J3" s="114"/>
-      <c r="K3" s="116"/>
-    </row>
-    <row r="4" spans="1:11" ht="165" customHeight="1">
-      <c r="A4" s="122" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4" s="121" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" s="126" t="s">
-        <v>63</v>
-      </c>
-      <c r="D4" s="128" t="s">
+      <c r="F5" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="46" t="s">
         <v>77</v>
       </c>
-      <c r="E4" s="46" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="47" t="s">
-        <v>59</v>
-      </c>
-      <c r="G4" s="47" t="s">
-        <v>72</v>
-      </c>
-      <c r="H4" s="48" t="s">
-        <v>78</v>
-      </c>
-      <c r="I4" s="125" t="s">
-        <v>65</v>
-      </c>
-      <c r="J4" s="111" t="s">
-        <v>79</v>
-      </c>
-      <c r="K4" s="109"/>
-    </row>
-    <row r="5" spans="1:11" ht="28.9">
-      <c r="A5" s="122"/>
-      <c r="B5" s="121"/>
-      <c r="C5" s="127"/>
-      <c r="D5" s="129"/>
-      <c r="E5" s="46" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" s="47" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" s="46" t="s">
-        <v>75</v>
-      </c>
       <c r="H5" s="48" t="s">
-        <v>80</v>
-      </c>
-      <c r="I5" s="125"/>
-      <c r="J5" s="112"/>
-      <c r="K5" s="110"/>
+        <v>82</v>
+      </c>
+      <c r="I5" s="117"/>
+      <c r="J5" s="125"/>
+      <c r="K5" s="123"/>
     </row>
     <row r="6" spans="1:11" ht="403.15">
       <c r="A6" s="60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C6" s="61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D6" s="53" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E6" s="46" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F6" s="46" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G6" s="46">
         <v>0</v>
       </c>
       <c r="H6" s="47" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I6" s="47" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="J6" s="83" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K6" s="1"/>
     </row>
@@ -3463,6 +3478,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="D2:D3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="A2:A3"/>
@@ -3472,11 +3492,6 @@
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="D4:D5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="D2:D3"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" display="https://www.undp.org/es/colombia/news/en-la-guajira-mujeres-rurales-lideran-tiendas-comunitarias-para-su-empoderamiento-econ%C3%B3mico_x000a__x000a_https://www.youtube.com/watch?v=6vtlQRzqaUw" xr:uid="{5A53599B-2B12-4126-B10B-63EF8BFC44B4}"/>
@@ -3514,178 +3529,178 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="28.9">
       <c r="A2" s="132" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="132" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="132" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="132" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="43.15">
       <c r="A6" s="132" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="28.9">
       <c r="A7" s="132" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="28.9">
       <c r="A8" s="132" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="28.9">
       <c r="A9" s="132" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="28.9">
       <c r="A10" s="132" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B10" s="133" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="132" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B11" s="133" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="28.9">
       <c r="A12" s="132" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="132" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B13" s="133" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="132" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B14" s="133" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="132" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B15" s="133" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="132" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B16" s="133" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="132" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="132" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B18" s="133" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="43.15">
       <c r="A19" s="132" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B19" s="133" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="132" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B20" s="133" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="28.9">
       <c r="A21" s="132" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B21" s="134" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="132" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B22" s="133" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -3694,55 +3709,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="720239d0-7d3a-4257-bb40-a2a3b1409bb2">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59" xsi:nil="true"/>
-    <SharedWithUsers xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59">
-      <UserInfo>
-        <DisplayName>Alejandro Pacheco</DisplayName>
-        <AccountId>1250</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Lyes FERROUKHI</DisplayName>
-        <AccountId>97</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Stefano Pistolese</DisplayName>
-        <AccountId>772</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Jimena Puyana</DisplayName>
-        <AccountId>1259</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Carlos Salgado</DisplayName>
-        <AccountId>1344</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010081A889D055969F449BCDADF9B8A9C0F0" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0d2b1cfbe0bead55dc04bff20486709a">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="720239d0-7d3a-4257-bb40-a2a3b1409bb2" xmlns:ns3="fb9e4d32-074f-4c04-81ef-e811753dfd59" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a3ed273af6605fa6a207dd3965c2d078" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010081A889D055969F449BCDADF9B8A9C0F0" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="dd25160c21e587dbb66203dfb8c7aa52">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="720239d0-7d3a-4257-bb40-a2a3b1409bb2" xmlns:ns3="fb9e4d32-074f-4c04-81ef-e811753dfd59" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="05ccd5be12d50c438f9536854e894bcb" ns2:_="" ns3:_="">
     <xsd:import namespace="720239d0-7d3a-4257-bb40-a2a3b1409bb2"/>
     <xsd:import namespace="fb9e4d32-074f-4c04-81ef-e811753dfd59"/>
     <xsd:element name="properties">
@@ -3767,6 +3735,7 @@
                 <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
                 <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -3846,6 +3815,11 @@
     <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="24" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="25" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -3989,8 +3963,55 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="720239d0-7d3a-4257-bb40-a2a3b1409bb2">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59" xsi:nil="true"/>
+    <SharedWithUsers xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59">
+      <UserInfo>
+        <DisplayName>Alejandro Pacheco</DisplayName>
+        <AccountId>1250</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Lyes FERROUKHI</DisplayName>
+        <AccountId>97</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Stefano Pistolese</DisplayName>
+        <AccountId>772</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Jimena Puyana</DisplayName>
+        <AccountId>1259</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Carlos Salgado</DisplayName>
+        <AccountId>1344</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D06A8A7-AAD0-46D5-9E3E-4D298B186157}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{012E2830-96FA-47FD-BB98-C94BEB851E40}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3998,5 +4019,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE0019D6-8266-4ACC-B350-1D73C89373DD}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D06A8A7-AAD0-46D5-9E3E-4D298B186157}"/>
 </file>
--- a/01_Input/00_CO Validation/Colombia - Energy Projects.xlsx
+++ b/01_Input/00_CO Validation/Colombia - Energy Projects.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27511"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://undp.sharepoint.com/sites/UNDPSustainableEnergyHub/Shared Documents/General/0. CURRENT FOLDER - Sustainable Energy Hub/05. Accounting for Progress to 500M/7. CO Validation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="556" documentId="8_{A4E74F79-E02C-435D-8D4A-18BF02B394B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2C9FD465-B0A6-46D2-A331-6E87BE31FA14}"/>
+  <xr:revisionPtr revIDLastSave="559" documentId="8_{A4E74F79-E02C-435D-8D4A-18BF02B394B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E3613315-4F81-4569-BE62-9B47B7EB39B3}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="128">
   <si>
     <t>Project ID</t>
   </si>
@@ -107,7 +107,7 @@
     <t>Policy Population</t>
   </si>
   <si>
-    <t>00124835</t>
+    <t>132166</t>
   </si>
   <si>
     <t>Tiendas Comunitarias - La Guajira</t>
@@ -205,7 +205,7 @@
     <t>Not applicable</t>
   </si>
   <si>
-    <t>00118585</t>
+    <t>123292</t>
   </si>
   <si>
     <t>Tiendas Comunitarias - Chocó</t>
@@ -272,7 +272,7 @@
     </r>
   </si>
   <si>
-    <t>00101702</t>
+    <t>98331</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -426,6 +426,9 @@
     <t>Comments</t>
   </si>
   <si>
+    <t>00124835</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -687,6 +690,9 @@
       </rPr>
       <t>https://www.undp.org/es/colombia</t>
     </r>
+  </si>
+  <si>
+    <t>00101702</t>
   </si>
   <si>
     <r>
@@ -964,6 +970,9 @@
   </si>
   <si>
     <t>68 people benefited.</t>
+  </si>
+  <si>
+    <t>00118585</t>
   </si>
   <si>
     <r>
@@ -2400,8 +2409,8 @@
   <dimension ref="A1:V11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
@@ -2879,7 +2888,7 @@
     </row>
     <row r="2" spans="1:20" ht="141.75" customHeight="1">
       <c r="A2" s="91" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="B2" s="93" t="s">
         <v>23</v>
@@ -2888,13 +2897,13 @@
         <v>24</v>
       </c>
       <c r="D2" s="106" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>26</v>
       </c>
       <c r="F2" s="29" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G2" s="4">
         <v>0</v>
@@ -2903,10 +2912,10 @@
         <v>2</v>
       </c>
       <c r="I2" s="107" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J2" s="99" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K2" s="101"/>
       <c r="L2" s="103">
@@ -2966,22 +2975,22 @@
     </row>
     <row r="4" spans="1:20" ht="165" customHeight="1">
       <c r="A4" s="91" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B4" s="93" t="s">
         <v>40</v>
       </c>
       <c r="C4" s="95" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D4" s="104" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>26</v>
       </c>
       <c r="F4" s="29" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G4" s="4">
         <v>0</v>
@@ -2990,10 +2999,10 @@
         <v>1</v>
       </c>
       <c r="I4" s="97" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J4" s="99" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K4" s="101"/>
       <c r="L4" s="103">
@@ -3052,7 +3061,7 @@
     </row>
     <row r="6" spans="1:20" ht="409.6">
       <c r="A6" s="55" t="s">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="B6" s="29" t="s">
         <v>46</v>
@@ -3061,10 +3070,10 @@
         <v>47</v>
       </c>
       <c r="D6" s="89" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F6" s="29" t="s">
         <v>49</v>
@@ -3076,10 +3085,10 @@
         <v>16571</v>
       </c>
       <c r="I6" s="25" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J6" s="81" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K6" s="37"/>
       <c r="L6" s="79">
@@ -3295,7 +3304,7 @@
     </row>
     <row r="2" spans="1:11" ht="141.75" customHeight="1">
       <c r="A2" s="114" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="B2" s="113" t="s">
         <v>23</v>
@@ -3304,25 +3313,25 @@
         <v>24</v>
       </c>
       <c r="D2" s="130" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E2" s="46" t="s">
         <v>26</v>
       </c>
       <c r="F2" s="47" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G2" s="47" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H2" s="47" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I2" s="115" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J2" s="126" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K2" s="128"/>
     </row>
@@ -3338,10 +3347,10 @@
         <v>27</v>
       </c>
       <c r="G3" s="46" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H3" s="47" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I3" s="116"/>
       <c r="J3" s="127"/>
@@ -3349,34 +3358,34 @@
     </row>
     <row r="4" spans="1:11" ht="165" customHeight="1">
       <c r="A4" s="114" t="s">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="B4" s="113" t="s">
         <v>40</v>
       </c>
       <c r="C4" s="118" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D4" s="120" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E4" s="46" t="s">
         <v>26</v>
       </c>
       <c r="F4" s="47" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G4" s="47" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H4" s="48" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="I4" s="117" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J4" s="124" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="K4" s="122"/>
     </row>
@@ -3392,10 +3401,10 @@
         <v>27</v>
       </c>
       <c r="G5" s="46" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H5" s="48" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I5" s="117"/>
       <c r="J5" s="125"/>
@@ -3403,7 +3412,7 @@
     </row>
     <row r="6" spans="1:11" ht="403.15">
       <c r="A6" s="60" t="s">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>46</v>
@@ -3412,25 +3421,25 @@
         <v>47</v>
       </c>
       <c r="D6" s="53" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E6" s="46" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F6" s="46" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="G6" s="46">
         <v>0</v>
       </c>
       <c r="H6" s="47" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="I6" s="47" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="J6" s="83" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K6" s="1"/>
     </row>
@@ -3540,87 +3549,87 @@
         <v>33</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="132" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="132" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="132" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="43.15">
       <c r="A6" s="132" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="28.9">
       <c r="A7" s="132" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="28.9">
       <c r="A8" s="132" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="28.9">
       <c r="A9" s="132" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="28.9">
       <c r="A10" s="132" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B10" s="133" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="132" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B11" s="133" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="28.9">
       <c r="A12" s="132" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -3628,63 +3637,63 @@
         <v>26</v>
       </c>
       <c r="B13" s="133" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="132" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B14" s="133" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="132" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B15" s="133" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="132" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B16" s="133" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="132" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="132" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B18" s="133" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="43.15">
       <c r="A19" s="132" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B19" s="133" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="132" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B20" s="133" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="28.9">
@@ -3692,15 +3701,15 @@
         <v>20</v>
       </c>
       <c r="B21" s="134" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="132" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B22" s="133" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -3709,6 +3718,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010081A889D055969F449BCDADF9B8A9C0F0" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="dd25160c21e587dbb66203dfb8c7aa52">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="720239d0-7d3a-4257-bb40-a2a3b1409bb2" xmlns:ns3="fb9e4d32-074f-4c04-81ef-e811753dfd59" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="05ccd5be12d50c438f9536854e894bcb" ns2:_="" ns3:_="">
     <xsd:import namespace="720239d0-7d3a-4257-bb40-a2a3b1409bb2"/>
@@ -3963,7 +3981,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="720239d0-7d3a-4257-bb40-a2a3b1409bb2">
@@ -4001,23 +4019,14 @@
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D06A8A7-AAD0-46D5-9E3E-4D298B186157}"/>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{012E2830-96FA-47FD-BB98-C94BEB851E40}"/>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84AEDBCE-AE29-4AA3-A5BD-B932231712F2}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D06A8A7-AAD0-46D5-9E3E-4D298B186157}"/>
 </file>